--- a/SameAnnotationData/consistency_stats.xlsx
+++ b/SameAnnotationData/consistency_stats.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="199" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="199" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="25">
   <si>
     <t>file</t>
   </si>
@@ -60,9 +61,6 @@
   </si>
   <si>
     <t>Celegans.100percentID.GOtermsAndText.txt</t>
-  </si>
-  <si>
-    <t> GO:0055037</t>
   </si>
   <si>
     <t>GO:0055037</t>
@@ -105,6 +103,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -192,22 +191,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="C1" activeCellId="0" pane="topLeft" sqref="C1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
+      <selection activeCell="A3" activeCellId="1" pane="topLeft" sqref="B2:I19 A3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.04313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.18823529411765"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.0549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3725490196078"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.07058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.22352941176471"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -236,7 +235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
@@ -262,7 +261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -294,7 +293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -320,7 +319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -352,7 +351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -378,7 +377,7 @@
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -407,12 +406,12 @@
         <v>17704769</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
@@ -436,9 +435,9 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>11</v>
@@ -462,9 +461,9 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>13</v>
@@ -488,9 +487,9 @@
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -517,15 +516,15 @@
         <v>16189514</v>
       </c>
       <c r="J11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -549,9 +548,9 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -575,9 +574,9 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>10</v>
@@ -604,12 +603,12 @@
         <v>11591653</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>11</v>
@@ -633,9 +632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>13</v>
@@ -659,9 +658,9 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -685,9 +684,9 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -714,9 +713,9 @@
         <v>12529438</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -743,9 +742,9 @@
         <v>16823372</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>10</v>
@@ -772,12 +771,12 @@
         <v>16429126</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>11</v>
@@ -801,9 +800,9 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>13</v>
@@ -827,9 +826,9 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -853,9 +852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
@@ -879,12 +878,12 @@
         <v>1</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
@@ -906,6 +905,12 @@
       </c>
       <c r="H25" s="0" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="G26" s="0" t="n">
+        <f aca="false">SUM(G2:G25)</f>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -917,4 +922,499 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:I19"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2:I19"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="2">
+      <c r="B2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="3">
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="4">
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1883</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="5">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1847</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="6">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="7">
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="8">
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="9">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="10">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="11">
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="12">
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="13">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="14">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="15">
+      <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="16">
+      <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>635</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="17">
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="18">
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="19">
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>